--- a/docs/Test cases Telnyx.xlsx
+++ b/docs/Test cases Telnyx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkmts\OneDrive\Рабочий стол\Cypress-cucumber\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDDEC7D-6D3E-44C2-B7C4-07B32AAD774C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96F8DE7-1E7F-41C3-A930-7A64831676F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1110" windowWidth="19215" windowHeight="18870" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15" yWindow="345" windowWidth="19065" windowHeight="18870" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase1" sheetId="13" r:id="rId1"/>
@@ -23,14 +23,18 @@
     <sheet name="TestCase8" sheetId="18" r:id="rId8"/>
     <sheet name="TestCase9" sheetId="12" r:id="rId9"/>
     <sheet name="TestCase10" sheetId="11" r:id="rId10"/>
+    <sheet name="TestCase11" sheetId="21" r:id="rId11"/>
+    <sheet name="TestCase12" sheetId="22" r:id="rId12"/>
+    <sheet name="TestCase13" sheetId="23" r:id="rId13"/>
+    <sheet name="TestCase14" sheetId="24" r:id="rId14"/>
+    <sheet name="TestCase15" sheetId="25" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="177">
   <si>
     <t>Step #</t>
   </si>
@@ -50,9 +54,6 @@
     <t>Site should open</t>
   </si>
   <si>
-    <t>Sign Up page should load</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -110,21 +111,12 @@
     <t>Entered value should appear in the “Password” field</t>
   </si>
   <si>
-    <t>Entered value should appear in the “Email” field</t>
-  </si>
-  <si>
     <t>TX_001</t>
   </si>
   <si>
     <t xml:space="preserve">Navigate to https://telnyx.com/   </t>
   </si>
   <si>
-    <t>Click on "Products" dropdown</t>
-  </si>
-  <si>
-    <t>"Products" dropdown options should appear</t>
-  </si>
-  <si>
     <t>Click on "Contact us" button</t>
   </si>
   <si>
@@ -173,12 +165,6 @@
     <t>TX_002</t>
   </si>
   <si>
-    <t>Click "See all products" option</t>
-  </si>
-  <si>
-    <t>"Products" page should load</t>
-  </si>
-  <si>
     <t>TX_006</t>
   </si>
   <si>
@@ -191,21 +177,6 @@
     <t>TX_003</t>
   </si>
   <si>
-    <t xml:space="preserve">Set invalid value in "Password" field </t>
-  </si>
-  <si>
-    <t>Click on "Remember my email" button</t>
-  </si>
-  <si>
-    <t>Button should be selected</t>
-  </si>
-  <si>
-    <t>Click on "Log in" button</t>
-  </si>
-  <si>
-    <t>Click header "Sign Up" button</t>
-  </si>
-  <si>
     <t>Set valid value in "Full Name" field</t>
   </si>
   <si>
@@ -215,54 +186,9 @@
     <t>Set valid value in "Password" field</t>
   </si>
   <si>
-    <t>Click header "Agree" button</t>
-  </si>
-  <si>
     <t>"Agree" button should be selected</t>
   </si>
   <si>
-    <t>Click "Submit" button</t>
-  </si>
-  <si>
-    <t>Click "Apply Promo Code" button</t>
-  </si>
-  <si>
-    <t>"Promo Code" field should be appear</t>
-  </si>
-  <si>
-    <t>Entered value should appear in the “Promo Code” field</t>
-  </si>
-  <si>
-    <t>Check products text visibility</t>
-  </si>
-  <si>
-    <t>Products text should be visible</t>
-  </si>
-  <si>
-    <t>"Communications" window should be visible</t>
-  </si>
-  <si>
-    <t>"Storage" window should be visible</t>
-  </si>
-  <si>
-    <t>"Wireless" window should be visible</t>
-  </si>
-  <si>
-    <t>"Networking" window should be visible</t>
-  </si>
-  <si>
-    <t>Check visibility of the "Communications" window</t>
-  </si>
-  <si>
-    <t>Check visibility of the "Networking" window</t>
-  </si>
-  <si>
-    <t>Check visibility of the "Wireless" window</t>
-  </si>
-  <si>
-    <t>Check visibility of the "Storage" window</t>
-  </si>
-  <si>
     <t>TX_008</t>
   </si>
   <si>
@@ -278,27 +204,12 @@
     <t>Submit page with "The last one step" message should appear</t>
   </si>
   <si>
-    <t>Scroll down to "Log In" button</t>
-  </si>
-  <si>
-    <t>"Log In" button should be visible</t>
-  </si>
-  <si>
-    <t>Click on "Log In" button</t>
-  </si>
-  <si>
-    <t>Log In page should load</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify the match of the data in the "Enter business email" field on the Sign Up page with the previously entered data on the Main page </t>
   </si>
   <si>
     <t>Verify that "Thank you." message appears after submitting Contact Us form with valid credentials</t>
   </si>
   <si>
-    <t>Set valid value in "Promo Code" field</t>
-  </si>
-  <si>
     <t>www.testvalue.com</t>
   </si>
   <si>
@@ -317,12 +228,6 @@
     <t>Set valid value  like "testvalue@gmail.com" in "Email" field</t>
   </si>
   <si>
-    <t xml:space="preserve">Set invalid "testvalue@gmail.com" in "Email" field </t>
-  </si>
-  <si>
-    <t>Entered "testvalue@gmail.com" should appear in the “Email” field</t>
-  </si>
-  <si>
     <t>"Thank you." message should appear</t>
   </si>
   <si>
@@ -350,9 +255,6 @@
     <t>Verify that the Products page displays the Communication, Network, Wireless, Storage options.</t>
   </si>
   <si>
-    <t>"That email and password combinations is not valid ..."  message should appear and user is not signed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Navigate to https://telnyx.com/ </t>
   </si>
   <si>
@@ -516,6 +418,153 @@
   </si>
   <si>
     <t>Click on "Agree" button</t>
+  </si>
+  <si>
+    <t>Select "Mission Control" option in "Why Telnyx" dropdown</t>
+  </si>
+  <si>
+    <t>"Mission Control" page should load</t>
+  </si>
+  <si>
+    <t>Check visibility of the "Mission Control Portal" topic text</t>
+  </si>
+  <si>
+    <t>"Mission Control Portal" topic text should be visible</t>
+  </si>
+  <si>
+    <t>Scroll down to the "industry-leading platform" link-button</t>
+  </si>
+  <si>
+    <t>"industry-leading platform" link-button should be visible</t>
+  </si>
+  <si>
+    <t>Click on "industry-leading platform" link-button</t>
+  </si>
+  <si>
+    <t>"g2-compare" page should load</t>
+  </si>
+  <si>
+    <t>Click on "Talk to an expert" link button</t>
+  </si>
+  <si>
+    <t>Scroll down to "Report abuse" button</t>
+  </si>
+  <si>
+    <t>"Report abuse" button should be visible</t>
+  </si>
+  <si>
+    <t>Click on "Report abuse" button</t>
+  </si>
+  <si>
+    <t>"Report abuse" page should load</t>
+  </si>
+  <si>
+    <t>Set valid value in "What are you reporting?" field</t>
+  </si>
+  <si>
+    <t>Entered value should appear in the “What are you reporting?” field</t>
+  </si>
+  <si>
+    <t>Set valid value in "Phone number causing the abuse" field</t>
+  </si>
+  <si>
+    <t>Entered value should appear in the “Phone number causing the abuse” field</t>
+  </si>
+  <si>
+    <t>Select "Albania" option in "Country of phone number causing the abuse" dropdown</t>
+  </si>
+  <si>
+    <t>"Albania" should be selected</t>
+  </si>
+  <si>
+    <t>Set valid value in "Phone number receiving the abuse" field</t>
+  </si>
+  <si>
+    <t>Entered value should appear in the “Phone number receiving the abuse” field</t>
+  </si>
+  <si>
+    <t>Select "Angola" option in "Country of phone number receiving the abuse" dropdown</t>
+  </si>
+  <si>
+    <t>"Angola" should be selected</t>
+  </si>
+  <si>
+    <t>Set valid value in "Date and time of the abuse" field</t>
+  </si>
+  <si>
+    <t>Entered value should appear in the “Date and time of the abuse” field</t>
+  </si>
+  <si>
+    <t>Click on "Voice" button</t>
+  </si>
+  <si>
+    <t>Click on "Messaging" button</t>
+  </si>
+  <si>
+    <t>"Voice" button should be activated</t>
+  </si>
+  <si>
+    <t>"Messaging" button should be activated</t>
+  </si>
+  <si>
+    <t>Set valid value in "Full name" field</t>
+  </si>
+  <si>
+    <t>Entered value should appear in the “Full name" field</t>
+  </si>
+  <si>
+    <t>Entered value should appear in the “Email" field</t>
+  </si>
+  <si>
+    <t>Set valid value in "Additional details" field</t>
+  </si>
+  <si>
+    <t>Entered value should appear in the “Additional details" field</t>
+  </si>
+  <si>
+    <t>"Thank you for submitting your abuse complaint." message should appear</t>
+  </si>
+  <si>
+    <t>TX_011</t>
+  </si>
+  <si>
+    <t>TX_012</t>
+  </si>
+  <si>
+    <t>TX_013</t>
+  </si>
+  <si>
+    <t>TX_014</t>
+  </si>
+  <si>
+    <t>TX_015</t>
+  </si>
+  <si>
+    <t>"industry-leading platform" link-button should be clickable</t>
+  </si>
+  <si>
+    <t>Set valid value in "Tell us" field</t>
+  </si>
+  <si>
+    <t>Entered value should appear in the “Tell us” field</t>
+  </si>
+  <si>
+    <t>Click on "Apply Now" button</t>
+  </si>
+  <si>
+    <t>Set "11-11-1111 11:11" value in "Date and time of the abuse" field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "11-11-1111 11:11" value should appear in the “Date and time of the abuse” field</t>
+  </si>
+  <si>
+    <t>11-11-1111 11:11</t>
+  </si>
+  <si>
+    <t>Select "Austrealia" option in "Country of phone number receiving the abuse" dropdown</t>
+  </si>
+  <si>
+    <t>"Austrealia" should be selected</t>
   </si>
 </sst>
 </file>
@@ -666,7 +715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -831,28 +880,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right/>
@@ -879,7 +906,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1027,10 +1054,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1063,14 +1090,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1084,37 +1117,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
@@ -1360,7 +1375,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:H19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1374,18 +1389,18 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="26" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -1395,22 +1410,22 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="34"/>
@@ -1431,7 +1446,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="9"/>
@@ -1459,20 +1474,20 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="37"/>
       <c r="G6" s="38"/>
       <c r="H6" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="21"/>
@@ -1493,19 +1508,19 @@
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -1517,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -1597,10 +1612,10 @@
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -1653,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="53" t="s">
@@ -1672,11 +1687,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -1691,11 +1706,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -1710,11 +1725,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -1729,11 +1744,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="C21" s="57"/>
       <c r="D21" s="58" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="60"/>
@@ -1809,10 +1824,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11170368-7A71-41F1-8610-7917C47A615E}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1824,18 +1839,18 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -1845,22 +1860,22 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="34"/>
@@ -1881,7 +1896,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="9"/>
@@ -1909,22 +1924,22 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="21"/>
@@ -1945,19 +1960,19 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -1969,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -1978,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -1996,7 +2011,9 @@
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="41" t="s">
+        <v>174</v>
+      </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
@@ -2051,10 +2068,10 @@
     </row>
     <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -2067,53 +2084,53 @@
       <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="81" t="s">
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="81" t="s">
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
     </row>
     <row r="16" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="54"/>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="87"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="53"/>
       <c r="G17" s="55"/>
       <c r="H17" s="54"/>
@@ -2126,11 +2143,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -2145,11 +2162,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -2164,13 +2181,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="C20" s="54"/>
-      <c r="D20" s="87" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="87"/>
+      <c r="D20" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="83"/>
       <c r="F20" s="53"/>
       <c r="G20" s="55"/>
       <c r="H20" s="54"/>
@@ -2183,11 +2200,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="53" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="53"/>
@@ -2201,61 +2218,213 @@
       <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
+      <c r="B22" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
-    </row>
-    <row r="24" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="73" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
+      <c r="B24" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+    </row>
+    <row r="30" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+    </row>
+    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+    </row>
+    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="94">
     <mergeCell ref="B14:K14"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
@@ -2318,9 +2487,3556 @@
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{E849C4F2-3DF2-4ECE-BAAD-8FDA54A74891}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448CF3DD-ACDF-4396-8CC0-A9A808437A33}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="11" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="78"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+    </row>
+    <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
+    </row>
+    <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+    </row>
+    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+    </row>
+    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+    </row>
+    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{62708BB0-31B6-44FF-8DA1-5DB4EA775F68}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CD2AF6-769D-4D87-9A3A-43C305866C57}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="11" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="78"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+    </row>
+    <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
+    </row>
+    <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+    </row>
+    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+    </row>
+    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+    </row>
+    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{A4F84109-48C5-47A6-95B2-7A802E9E86E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A32DB0-79A7-41C5-8818-D93561707557}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="11" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="78"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+    </row>
+    <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
+    </row>
+    <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+    </row>
+    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+    </row>
+    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+    </row>
+    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{BDD870FB-B95D-4183-9084-56FB67F156AD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6E098B-EF4A-47DE-B90C-80C2D710BAB7}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="11" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="78"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+    </row>
+    <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
+    </row>
+    <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+    </row>
+    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+    </row>
+    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+    </row>
+    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{B50106DF-2C2F-4A46-BCE5-9A5303C7B0F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B178D9AF-3E07-436F-A3D4-4EAFA7E90B99}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F1:K1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="11" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="78"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+    </row>
+    <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
+    </row>
+    <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="83"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>5</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="54"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="59"/>
+      <c r="D29" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+    </row>
+    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+    </row>
+    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="59"/>
+      <c r="D31" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="74"/>
+    </row>
+    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>16</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="94">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{25E5D7A9-4F2A-44FC-B744-60C8FE59558E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2331,7 +6047,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2345,18 +6061,18 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -2366,22 +6082,22 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="34"/>
@@ -2402,7 +6118,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="9"/>
@@ -2430,20 +6146,20 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="37"/>
       <c r="G6" s="38"/>
       <c r="H6" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="21"/>
@@ -2464,19 +6180,19 @@
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -2488,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -2497,7 +6213,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -2570,10 +6286,10 @@
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -2593,10 +6309,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
@@ -2612,8 +6328,8 @@
       <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="47"/>
       <c r="G16" s="50"/>
       <c r="H16" s="48"/>
@@ -2626,7 +6342,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="53" t="s">
@@ -2644,51 +6360,51 @@
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
+      <c r="B18" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="67"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="73" t="s">
+      <c r="B19" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -2703,11 +6419,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="53" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="53"/>
@@ -2722,11 +6438,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="53"/>
@@ -2741,11 +6457,11 @@
         <v>7</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="58" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E23" s="59"/>
       <c r="F23" s="60"/>
@@ -2760,11 +6476,11 @@
         <v>8</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="58" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="60"/>
@@ -2781,31 +6497,29 @@
     <row r="29" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="D15:E16"/>
     <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
@@ -2819,30 +6533,32 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{39110AA2-7726-45AE-B29C-D47DDD7F3F1A}"/>
@@ -2857,7 +6573,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2871,18 +6587,18 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -2892,22 +6608,22 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="34"/>
@@ -2928,7 +6644,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="9"/>
@@ -2956,20 +6672,20 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="37"/>
       <c r="G6" s="38"/>
       <c r="H6" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="21"/>
@@ -2990,19 +6706,19 @@
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -3014,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -3023,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -3042,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -3098,10 +6814,10 @@
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -3121,10 +6837,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
@@ -3140,8 +6856,8 @@
       <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="47"/>
       <c r="G16" s="50"/>
       <c r="H16" s="48"/>
@@ -3154,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="53" t="s">
@@ -3173,11 +6889,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -3192,11 +6908,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="58" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E19" s="59"/>
       <c r="F19" s="53"/>
@@ -3211,11 +6927,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -3230,11 +6946,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="53"/>
@@ -3249,11 +6965,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="58" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="60"/>
@@ -3268,11 +6984,11 @@
         <v>7</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="58" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="E23" s="59"/>
       <c r="F23" s="60"/>
@@ -3287,11 +7003,11 @@
         <v>8</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="58" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="60"/>
@@ -3306,11 +7022,11 @@
         <v>9</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="58" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E25" s="59"/>
       <c r="F25" s="60"/>
@@ -3325,11 +7041,11 @@
         <v>10</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="58" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="60"/>
@@ -3344,38 +7060,38 @@
         <v>11</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="58" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E27" s="59"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
     </row>
     <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>12</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="58" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E28" s="59"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -3472,7 +7188,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+      <selection activeCell="B22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3486,18 +7202,18 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -3507,22 +7223,22 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="34"/>
@@ -3543,7 +7259,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="9"/>
@@ -3571,20 +7287,20 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="37"/>
       <c r="G6" s="38"/>
       <c r="H6" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="21"/>
@@ -3605,19 +7321,19 @@
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -3629,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -3709,10 +7425,10 @@
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -3732,10 +7448,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
@@ -3751,8 +7467,8 @@
       <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="47"/>
       <c r="G16" s="50"/>
       <c r="H16" s="48"/>
@@ -3765,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="53" t="s">
@@ -3784,11 +7500,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -3803,11 +7519,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -3822,11 +7538,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -3841,11 +7557,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="53" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="53"/>
@@ -3860,11 +7576,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="53" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="53"/>
@@ -3940,8 +7656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863D1623-AE8B-44A5-9703-0C4EE436ABB3}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3955,18 +7671,18 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -3976,22 +7692,22 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="34"/>
@@ -4012,7 +7728,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="9"/>
@@ -4040,20 +7756,20 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="37"/>
       <c r="G6" s="38"/>
       <c r="H6" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="21"/>
@@ -4074,19 +7790,19 @@
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -4098,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -4107,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -4126,7 +7842,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -4182,10 +7898,10 @@
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -4205,10 +7921,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
@@ -4224,8 +7940,8 @@
       <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="47"/>
       <c r="G16" s="50"/>
       <c r="H16" s="48"/>
@@ -4238,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="53" t="s">
@@ -4257,11 +7973,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -4276,11 +7992,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -4295,11 +8011,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -4314,11 +8030,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C21" s="57"/>
       <c r="D21" s="58" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="60"/>
@@ -4333,11 +8049,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="58" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="60"/>
@@ -4352,11 +8068,11 @@
         <v>7</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="58" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="E23" s="59"/>
       <c r="F23" s="60"/>
@@ -4371,11 +8087,11 @@
         <v>8</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="58" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="60"/>
@@ -4390,11 +8106,11 @@
         <v>9</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="58" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E25" s="59"/>
       <c r="F25" s="60"/>
@@ -4409,11 +8125,11 @@
         <v>10</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="58" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="60"/>
@@ -4428,38 +8144,38 @@
         <v>11</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="58" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="E27" s="59"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+    </row>
+    <row r="28" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>12</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="58" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="E28" s="59"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="78">
@@ -4557,7 +8273,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:K9"/>
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4571,18 +8287,18 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -4592,22 +8308,22 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="34"/>
@@ -4628,7 +8344,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="9"/>
@@ -4656,20 +8372,20 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="37"/>
       <c r="G6" s="38"/>
       <c r="H6" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="21"/>
@@ -4690,19 +8406,19 @@
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -4714,7 +8430,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -4794,10 +8510,10 @@
     </row>
     <row r="14" spans="1:11" s="20" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -4817,10 +8533,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
@@ -4836,8 +8552,8 @@
       <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="47"/>
       <c r="G16" s="50"/>
       <c r="H16" s="48"/>
@@ -4850,7 +8566,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="53" t="s">
@@ -4869,11 +8585,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -4888,11 +8604,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -4906,54 +8622,51 @@
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="73" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="73" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
+      <c r="B20" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="73" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
+      <c r="B21" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="64"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F19:H19"/>
     <mergeCell ref="B14:K14"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="D15:E16"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F19:H19"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="D17:E17"/>
@@ -4961,11 +8674,17 @@
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I17:K17"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F18:H18"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B19:C19"/>
@@ -4982,15 +8701,12 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5003,7 +8719,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E20"/>
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5017,18 +8733,18 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -5038,22 +8754,22 @@
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="34"/>
@@ -5074,7 +8790,7 @@
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="9"/>
@@ -5102,20 +8818,20 @@
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="37"/>
       <c r="G6" s="38"/>
       <c r="H6" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="21"/>
@@ -5136,19 +8852,19 @@
     </row>
     <row r="8" spans="1:11" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -5160,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -5169,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -5242,10 +8958,10 @@
     </row>
     <row r="14" spans="1:11" s="5" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -5265,10 +8981,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="67"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
@@ -5284,8 +9000,8 @@
       <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
       <c r="F16" s="47"/>
       <c r="G16" s="50"/>
       <c r="H16" s="48"/>
@@ -5298,7 +9014,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="53" t="s">
@@ -5317,11 +9033,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -5335,31 +9051,31 @@
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
+      <c r="B19" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -5374,11 +9090,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="53" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="53"/>
@@ -5393,11 +9109,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="60"/>
@@ -5412,11 +9128,11 @@
         <v>7</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="60" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E23" s="62"/>
       <c r="F23" s="60"/>
@@ -5431,11 +9147,11 @@
         <v>8</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="58" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="60"/>
@@ -5522,8 +9238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135D062B-62A7-463F-BC19-F4D8F70FD7BF}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5535,18 +9251,18 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -5556,22 +9272,22 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="34"/>
@@ -5592,7 +9308,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="9"/>
@@ -5620,22 +9336,22 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="21"/>
@@ -5656,19 +9372,19 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -5680,7 +9396,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -5689,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -5762,10 +9478,10 @@
     </row>
     <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -5778,47 +9494,47 @@
       <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="81" t="s">
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="81" t="s">
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="53" t="s">
@@ -5837,11 +9553,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>6</v>
+        <v>129</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -5856,11 +9572,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -5875,11 +9591,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -5889,103 +9605,13 @@
       <c r="J20" s="55"/>
       <c r="K20" s="54"/>
     </row>
-    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>5</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="62"/>
-    </row>
-    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>6</v>
-      </c>
-      <c r="B22" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
-    </row>
-    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>7</v>
-      </c>
-      <c r="B23" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="78"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-    </row>
-    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>8</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-    </row>
-    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>9</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-    </row>
+    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="46">
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:D12"/>
@@ -6024,10 +9650,6 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
@@ -6036,22 +9658,6 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{A5E1B17E-05F6-4590-B3EC-FFA57304C738}"/>
@@ -6062,10 +9668,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288A4D99-B358-4EA4-A97C-5C34F9477A36}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E22"/>
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6077,18 +9683,18 @@
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -6098,22 +9704,22 @@
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="33"/>
       <c r="H2" s="30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="34"/>
@@ -6134,7 +9740,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="9"/>
@@ -6162,22 +9768,22 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="21"/>
@@ -6198,19 +9804,19 @@
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
         <v>17</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>18</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -6222,7 +9828,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -6302,10 +9908,10 @@
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -6318,53 +9924,53 @@
       <c r="K14" s="52"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="77" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="83" t="s">
+      <c r="D15" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="81" t="s">
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="81" t="s">
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="82"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
     </row>
     <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="C17" s="54"/>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="87"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="53"/>
       <c r="G17" s="55"/>
       <c r="H17" s="54"/>
@@ -6376,52 +9982,52 @@
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
+      <c r="B18" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="64"/>
+      <c r="D18" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
+      <c r="B19" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="C20" s="54"/>
-      <c r="D20" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="87"/>
+      <c r="D20" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="83"/>
       <c r="F20" s="53"/>
       <c r="G20" s="55"/>
       <c r="H20" s="54"/>
@@ -6434,11 +10040,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="C21" s="57"/>
       <c r="D21" s="60" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E21" s="62"/>
       <c r="F21" s="60"/>
@@ -6449,55 +10055,55 @@
       <c r="K21" s="62"/>
     </row>
     <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="62"/>
+      <c r="B22" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="54"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
+      <c r="B23" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="54"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="54"/>
     </row>
     <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>8</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C24" s="57"/>
-      <c r="D24" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="62"/>
+      <c r="D24" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="59"/>
       <c r="F24" s="60"/>
       <c r="G24" s="61"/>
       <c r="H24" s="62"/>
@@ -6505,8 +10111,122 @@
       <c r="J24" s="61"/>
       <c r="K24" s="62"/>
     </row>
+    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>9</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>10</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
+    </row>
+    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>12</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="62"/>
+    </row>
+    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>13</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="59"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="74"/>
+    </row>
+    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>14</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+    </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="86">
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
@@ -6569,6 +10289,30 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I15:K16"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/Test cases Telnyx.xlsx
+++ b/docs/Test cases Telnyx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkmts\OneDrive\Рабочий стол\Cypress-cucumber\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkmts\OneDrive\Рабочий стол\cypress telnyx\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96F8DE7-1E7F-41C3-A930-7A64831676F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919384BD-B704-4980-A992-B610E60AE1CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="345" windowWidth="19065" windowHeight="18870" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1455" windowWidth="18585" windowHeight="18870" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase1" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="175">
   <si>
     <t>Step #</t>
   </si>
@@ -117,12 +117,6 @@
     <t xml:space="preserve">Navigate to https://telnyx.com/   </t>
   </si>
   <si>
-    <t>Click on "Contact us" button</t>
-  </si>
-  <si>
-    <t>Contact Us page should load</t>
-  </si>
-  <si>
     <t xml:space="preserve">Select "Support" option in "Choose Reason For Contact" dropdown </t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Set valid value in "Last Name" field</t>
   </si>
   <si>
-    <t>Set valid value in "Email" field</t>
-  </si>
-  <si>
     <t>Set valid value in "Phone Number" field</t>
   </si>
   <si>
@@ -204,12 +195,6 @@
     <t>Submit page with "The last one step" message should appear</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify the match of the data in the "Enter business email" field on the Sign Up page with the previously entered data on the Main page </t>
-  </si>
-  <si>
-    <t>Verify that "Thank you." message appears after submitting Contact Us form with valid credentials</t>
-  </si>
-  <si>
     <t>www.testvalue.com</t>
   </si>
   <si>
@@ -231,57 +216,12 @@
     <t>"Thank you." message should appear</t>
   </si>
   <si>
-    <t>Test Sign In form with negative scenario where all fields are filled with incorrect data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that "That email and password combinations is not valid ..." message appears and user is not signed in after submitting Log In form with invalid credentials </t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that "That email and password combinations is not valid ..." message appears and user is not signed in after submitting Log In form with invalid credentials from Contuct Us page </t>
   </si>
   <si>
-    <t>Test Sign In form from Contact Us page with negative scenario where all fields are filled with incorrect credentials</t>
-  </si>
-  <si>
-    <t>Check that "Confirm email" page is loading after clicking "Submit" button on Sign Up page with filling the correct data ​​in the required fields</t>
-  </si>
-  <si>
-    <t>Check that "Confirm email" page is loading after clicking "Submit" button on Sign Up page with filling in the correct data ​​in the required fields and "Promo Code" field</t>
-  </si>
-  <si>
-    <t>Check that "Communications", "Networking", "Wireless", "Storage" options are visible on Products page</t>
-  </si>
-  <si>
-    <t>Verify that the Products page displays the Communication, Network, Wireless, Storage options.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Navigate to https://telnyx.com/ </t>
   </si>
   <si>
-    <t>Chech that "Support Center" link navigate to "Support Center" page from the "Contact us" page</t>
-  </si>
-  <si>
-    <t>Verify that after clicking on the "Support Center" button from the Contact Us page the "Support Center" text appears.</t>
-  </si>
-  <si>
-    <t>Verify that "Thank you." message appears after submitting Contact Us form with valid credentials, the "Contact Us" form is triggered after clicking the "Contact Us" button on the "Products" page.</t>
-  </si>
-  <si>
-    <t>Verify that "The last one step" message appears and "Confirm email" page is loading after clicking "Submit" button on Sign Up page</t>
-  </si>
-  <si>
-    <t>Verify that "The last one step" message appears after clicking "Submit" button with filled "Promo Code" field on Sign Up page</t>
-  </si>
-  <si>
-    <t>Сheck that entered value in "Enter business email" field on the Main Page appearst in "Enter business email" field on Sign Up page</t>
-  </si>
-  <si>
-    <t>Test the "Contact Us" form with positive scenario, form opened via link from the Products page</t>
-  </si>
-  <si>
-    <t>Test the "Contact Us" form with positive scenario, form opened via header link from the main page</t>
-  </si>
-  <si>
     <t>Select "Global Numbers" option in "Pricing" dropdown</t>
   </si>
   <si>
@@ -414,9 +354,6 @@
     <t>Click on "Ask our experts" link button</t>
   </si>
   <si>
-    <t>Click on "Puchase numbers" button</t>
-  </si>
-  <si>
     <t>Click on "Agree" button</t>
   </si>
   <si>
@@ -438,90 +375,12 @@
     <t>"industry-leading platform" link-button should be visible</t>
   </si>
   <si>
-    <t>Click on "industry-leading platform" link-button</t>
-  </si>
-  <si>
     <t>"g2-compare" page should load</t>
   </si>
   <si>
     <t>Click on "Talk to an expert" link button</t>
   </si>
   <si>
-    <t>Scroll down to "Report abuse" button</t>
-  </si>
-  <si>
-    <t>"Report abuse" button should be visible</t>
-  </si>
-  <si>
-    <t>Click on "Report abuse" button</t>
-  </si>
-  <si>
-    <t>"Report abuse" page should load</t>
-  </si>
-  <si>
-    <t>Set valid value in "What are you reporting?" field</t>
-  </si>
-  <si>
-    <t>Entered value should appear in the “What are you reporting?” field</t>
-  </si>
-  <si>
-    <t>Set valid value in "Phone number causing the abuse" field</t>
-  </si>
-  <si>
-    <t>Entered value should appear in the “Phone number causing the abuse” field</t>
-  </si>
-  <si>
-    <t>Select "Albania" option in "Country of phone number causing the abuse" dropdown</t>
-  </si>
-  <si>
-    <t>"Albania" should be selected</t>
-  </si>
-  <si>
-    <t>Set valid value in "Phone number receiving the abuse" field</t>
-  </si>
-  <si>
-    <t>Entered value should appear in the “Phone number receiving the abuse” field</t>
-  </si>
-  <si>
-    <t>Select "Angola" option in "Country of phone number receiving the abuse" dropdown</t>
-  </si>
-  <si>
-    <t>"Angola" should be selected</t>
-  </si>
-  <si>
-    <t>Set valid value in "Date and time of the abuse" field</t>
-  </si>
-  <si>
-    <t>Entered value should appear in the “Date and time of the abuse” field</t>
-  </si>
-  <si>
-    <t>Click on "Voice" button</t>
-  </si>
-  <si>
-    <t>Click on "Messaging" button</t>
-  </si>
-  <si>
-    <t>"Voice" button should be activated</t>
-  </si>
-  <si>
-    <t>"Messaging" button should be activated</t>
-  </si>
-  <si>
-    <t>Set valid value in "Full name" field</t>
-  </si>
-  <si>
-    <t>Entered value should appear in the “Full name" field</t>
-  </si>
-  <si>
-    <t>Entered value should appear in the “Email" field</t>
-  </si>
-  <si>
-    <t>Set valid value in "Additional details" field</t>
-  </si>
-  <si>
-    <t>Entered value should appear in the “Additional details" field</t>
-  </si>
-  <si>
     <t>"Thank you for submitting your abuse complaint." message should appear</t>
   </si>
   <si>
@@ -552,19 +411,154 @@
     <t>Click on "Apply Now" button</t>
   </si>
   <si>
-    <t>Set "11-11-1111 11:11" value in "Date and time of the abuse" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "11-11-1111 11:11" value should appear in the “Date and time of the abuse” field</t>
-  </si>
-  <si>
-    <t>11-11-1111 11:11</t>
-  </si>
-  <si>
-    <t>Select "Austrealia" option in "Country of phone number receiving the abuse" dropdown</t>
-  </si>
-  <si>
-    <t>"Austrealia" should be selected</t>
+    <t>"This field is required." message should appear</t>
+  </si>
+  <si>
+    <t>Click on "Sign up" button</t>
+  </si>
+  <si>
+    <t>Sign up page should load</t>
+  </si>
+  <si>
+    <t>Scroll down to "Telnyx’s Terms &amp; Conditions" link button</t>
+  </si>
+  <si>
+    <t>"Telnyx’s Terms &amp; Conditions" link button should be visible</t>
+  </si>
+  <si>
+    <t>Click on "Telnyx’s Terms &amp; Conditions" link button</t>
+  </si>
+  <si>
+    <t>"Telnyx’s Terms &amp; Conditions" topic text should be visible</t>
+  </si>
+  <si>
+    <t>Click on "Sign Up" button</t>
+  </si>
+  <si>
+    <t>Sign Up page should load</t>
+  </si>
+  <si>
+    <t>Scroll down to "Privacy Policy" link button</t>
+  </si>
+  <si>
+    <t>"Privacy Policy" link button should be visible</t>
+  </si>
+  <si>
+    <t>Click on "Privacy Policy" button</t>
+  </si>
+  <si>
+    <t>"Privacy Policy" topic text should be visible</t>
+  </si>
+  <si>
+    <t>Scroll down to "Log In" link button</t>
+  </si>
+  <si>
+    <t>"Log In" link button should be visible</t>
+  </si>
+  <si>
+    <t>Click on "Log In" link button</t>
+  </si>
+  <si>
+    <t>Log In page should load</t>
+  </si>
+  <si>
+    <t>"Required" error message should appear</t>
+  </si>
+  <si>
+    <t>Set valid value like "testvalue@gmail.com" in "Business Email" field</t>
+  </si>
+  <si>
+    <t>Entered value like "testvalue@gmail.com" should appear in the “Business Email” field</t>
+  </si>
+  <si>
+    <t>"That email and password combinations is not valid ..." message should appear and user is not signed in</t>
+  </si>
+  <si>
+    <t>Test Sign In form from Sign Up page with negative scenario where all fields are filled with incorrect credentials</t>
+  </si>
+  <si>
+    <t>Verify "Number pricing" text changes when switching "Pay as you go" dropdown on "Numbers pricing" page</t>
+  </si>
+  <si>
+    <t>Test "Pay as you go" dropdown functionality on "Numbers pricing" page</t>
+  </si>
+  <si>
+    <t>Click on "Search Numbers" button</t>
+  </si>
+  <si>
+    <t>Test the Sign up form with positive scenario, form opened via link from the "Global Numbers" page</t>
+  </si>
+  <si>
+    <t>Verify that "The last one step" message appears after submitting Sign up form with valid credentials, the Sign up form is triggered after clicking the "Search Numbers" button on the "Global Numbers" page.</t>
+  </si>
+  <si>
+    <t>Verify that after clicking on the "See pricing" button from the Global Numbers page the "Pay as you go" and "Volume-based pricing" windows appears.</t>
+  </si>
+  <si>
+    <t>Chech that "See pricing" button navigate to "Pricing" page from the "Global Numbers" page</t>
+  </si>
+  <si>
+    <t>Verify that "Thank you." message appears after submitting "Become a Telnyx Partner" form with valid credentials, the "Become a Telnyx Partner" form is triggered after clicking the "Become a partner" button on the "Partnerships" page.</t>
+  </si>
+  <si>
+    <t>Test the "Become a Telnyx Partner" form with positive scenario, form opened via link from the Partnerships page</t>
+  </si>
+  <si>
+    <t>Verify "See industries" button scroll to "Healthcare" button and "See use cases" button scroll to "Account notifications" text and image on the "Solutions" page</t>
+  </si>
+  <si>
+    <t>Test "See use cases" and "See industries" buttons functionality on "Solutions" page</t>
+  </si>
+  <si>
+    <t>Verify that "The last one step" message appears and "Confirm email" page is loading after clicking "Submit" button,  the Sign up form is triggered after clicking the "portal" link button on the "SMS API" page.</t>
+  </si>
+  <si>
+    <t>Check that "Confirm email" page is loading after clicking "Submit" button on Sign Up page with filling the correct data ​​in the required fields, form opened via link from the "SMS API" page</t>
+  </si>
+  <si>
+    <t>Verify that "Mission Control Portal" topic text visibility and "industry-leading platform" link-button clickability on "Mission Control" page</t>
+  </si>
+  <si>
+    <t>Chech that "Mission Control" link navigate to "Mission Control" page from the "Why Telnyx" dropdown</t>
+  </si>
+  <si>
+    <t>Verify that "Thank you." message appears after submitting Contact Us form with valid credentials, the "Contact Us" form is triggered after clicking the "Talk to an expert" link button on the "g2-compare" page.</t>
+  </si>
+  <si>
+    <t>Test the "Contact Us" form with positive scenario, form opened via "Talk to an expert" link button from the "g2-compare" page</t>
+  </si>
+  <si>
+    <t>Click on "industry-leading platform" link button</t>
+  </si>
+  <si>
+    <t>Chech that "Telnyx’s Terms &amp; Conditions" link navigate to "Telnyx’s Terms &amp; Conditions" page from the Sign up page</t>
+  </si>
+  <si>
+    <t>Verify that after clicking on the "Telnyx’s Terms &amp; Conditions" button from the Sign up page the "Telnyx’s Terms &amp; Conditions" text appears.</t>
+  </si>
+  <si>
+    <t>Verify that after clicking on the "Privacy Policy" button from the Sign up page the "Privacy Policy" text appears.</t>
+  </si>
+  <si>
+    <t>Chech that "Privacy Policy" link navigate to "Privacy Policy" page from the Sign up page</t>
+  </si>
+  <si>
+    <t>Verify that "This field is required." message appears after clicking "Submit" button with empty fields, the "Become a Telnyx Partner" form is triggered after clicking the "Become a partner" button on the "Partnerships" page.</t>
+  </si>
+  <si>
+    <t>Test "Become a Telnyx Partner" form with negative scenario where all fields are filled with incorrect data</t>
+  </si>
+  <si>
+    <t>Test Sign up form from Contact Us page with negative scenario where all fields are filled with incorrect credentials</t>
+  </si>
+  <si>
+    <t>Verify that "Thank you for submitting your abuse complaint." message appears and user is not signed in after submitting Sign up form empty fields, the "Sign up" form is triggered after clicking the "portal" button on the "SMS API" page.</t>
+  </si>
+  <si>
+    <t>Test Sign In form from Sign Up page with negative scenario when all fields are left empty</t>
+  </si>
+  <si>
+    <t>Verify that "Required" message appears and user is not signed in after submitting Sign In form with invalid credentials, the "Sign In" form is triggered after clicking the "Log In" link button on the "Sign Up" page.</t>
   </si>
 </sst>
 </file>
@@ -1091,12 +1085,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1104,6 +1092,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1375,7 +1369,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1400,7 +1394,7 @@
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="26" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -1615,7 +1609,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -1687,11 +1681,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -1706,11 +1700,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -1725,11 +1719,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -1744,11 +1738,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C21" s="57"/>
       <c r="D21" s="58" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="60"/>
@@ -1824,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11170368-7A71-41F1-8610-7917C47A615E}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1843,14 +1837,14 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -1992,9 +1986,7 @@
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>59</v>
-      </c>
+      <c r="G9" s="42"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -2011,9 +2003,7 @@
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>174</v>
-      </c>
+      <c r="G10" s="41"/>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
@@ -2071,7 +2061,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -2143,11 +2133,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -2162,11 +2152,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -2181,11 +2171,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="83" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E20" s="83"/>
       <c r="F20" s="53"/>
@@ -2195,273 +2185,40 @@
       <c r="J20" s="55"/>
       <c r="K20" s="54"/>
     </row>
-    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="54"/>
-    </row>
-    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>6</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="54"/>
-    </row>
-    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>7</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-    </row>
-    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>8</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-    </row>
-    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>9</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>10</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>11</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-    </row>
-    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>12</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>13</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-    </row>
-    <row r="30" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>14</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>15</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-    </row>
-    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>16</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-    </row>
+    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="46">
     <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:C16"/>
     <mergeCell ref="D15:E16"/>
     <mergeCell ref="F15:H16"/>
     <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -2478,61 +2235,26 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:K9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{E849C4F2-3DF2-4ECE-BAAD-8FDA54A74891}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{448CF3DD-ACDF-4396-8CC0-A9A808437A33}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2548,14 +2270,14 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -2697,9 +2419,7 @@
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>59</v>
-      </c>
+      <c r="G9" s="42"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -2769,12 +2489,12 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -2846,11 +2566,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -2865,11 +2585,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -2884,11 +2604,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E20" s="83"/>
       <c r="F20" s="53"/>
@@ -2898,236 +2618,9 @@
       <c r="J20" s="55"/>
       <c r="K20" s="54"/>
     </row>
-    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="54"/>
-    </row>
-    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>6</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="54"/>
-    </row>
-    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>7</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-    </row>
-    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>8</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-    </row>
-    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>9</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>10</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>11</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-    </row>
-    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>12</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>13</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-    </row>
-    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>14</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>15</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-    </row>
-    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>16</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-    </row>
+    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="46">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3174,68 +2667,17 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{62708BB0-31B6-44FF-8DA1-5DB4EA775F68}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CD2AF6-769D-4D87-9A3A-43C305866C57}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3245,20 +2687,20 @@
     <col min="6" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -3400,9 +2842,7 @@
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>59</v>
-      </c>
+      <c r="G9" s="42"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -3477,7 +2917,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -3549,11 +2989,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -3568,11 +3008,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -3586,12 +3026,858 @@
       <c r="A20" s="1">
         <v>4</v>
       </c>
+      <c r="B20" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A32DB0-79A7-41C5-8818-D93561707557}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="11" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="78"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+    </row>
+    <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
+    </row>
+    <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
+      <c r="B20" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="59"/>
+      <c r="D20" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="74"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:E16"/>
+    <mergeCell ref="F15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6E098B-EF4A-47DE-B90C-80C2D710BAB7}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="11" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="23"/>
+      <c r="F1" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="33"/>
+      <c r="H2" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="16">
+        <v>2</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="16">
+        <v>3</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="16">
+        <v>4</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="78"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+    </row>
+    <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="83"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="54"/>
+    </row>
+    <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="54"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="54"/>
+    </row>
+    <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="54"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4</v>
+      </c>
       <c r="B20" s="53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="83" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E20" s="83"/>
       <c r="F20" s="53"/>
@@ -3606,11 +3892,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="53" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="53"/>
@@ -3625,11 +3911,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="53" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="53"/>
@@ -3644,11 +3930,11 @@
         <v>7</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E23" s="59"/>
       <c r="F23" s="60"/>
@@ -3658,179 +3944,17 @@
       <c r="J23" s="61"/>
       <c r="K23" s="62"/>
     </row>
-    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>8</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-    </row>
-    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>9</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>10</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>11</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-    </row>
-    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>12</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>13</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-    </row>
-    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>14</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>15</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-    </row>
-    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>16</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-    </row>
+    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="58">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -3877,6 +4001,10 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -3885,60 +4013,20 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{A4F84109-48C5-47A6-95B2-7A802E9E86E9}"/>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{B50106DF-2C2F-4A46-BCE5-9A5303C7B0F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A32DB0-79A7-41C5-8818-D93561707557}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B178D9AF-3E07-436F-A3D4-4EAFA7E90B99}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3948,20 +4036,20 @@
     <col min="6" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -4103,9 +4191,7 @@
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>59</v>
-      </c>
+      <c r="G9" s="42"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -4180,7 +4266,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -4252,11 +4338,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -4271,11 +4357,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -4290,11 +4376,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="83" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E20" s="83"/>
       <c r="F20" s="53"/>
@@ -4309,7 +4395,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="53" t="s">
@@ -4323,217 +4409,19 @@
       <c r="J21" s="55"/>
       <c r="K21" s="54"/>
     </row>
-    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>6</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="54"/>
-    </row>
-    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>7</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-    </row>
-    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>8</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-    </row>
-    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>9</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>10</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>11</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-    </row>
-    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>12</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>13</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-    </row>
-    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>14</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>15</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-    </row>
-    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>16</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-    </row>
+    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="50">
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -4572,6 +4460,10 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
@@ -4580,1464 +4472,7 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{BDD870FB-B95D-4183-9084-56FB67F156AD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6E098B-EF4A-47DE-B90C-80C2D710BAB7}">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F1:K1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="11" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
-        <v>1</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <v>2</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="16">
-        <v>2</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
-        <v>3</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="16">
-        <v>3</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
-        <v>4</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="16">
-        <v>4</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-    </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-    </row>
-    <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
-    </row>
-    <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="54"/>
-    </row>
-    <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="54"/>
-    </row>
-    <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>4</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
-    </row>
-    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="54"/>
-    </row>
-    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>6</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="54"/>
-    </row>
-    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>7</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-    </row>
-    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>8</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-    </row>
-    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>9</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>10</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>11</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-    </row>
-    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>12</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>13</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-    </row>
-    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>14</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>15</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-    </row>
-    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>16</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-    </row>
-  </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{B50106DF-2C2F-4A46-BCE5-9A5303C7B0F1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B178D9AF-3E07-436F-A3D4-4EAFA7E90B99}">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F1:K1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="11" width="10.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="27"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
-        <v>1</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <v>2</v>
-      </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="16">
-        <v>2</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
-        <v>3</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="16">
-        <v>3</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
-        <v>4</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="16">
-        <v>4</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-    </row>
-    <row r="17" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="54"/>
-    </row>
-    <row r="18" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="54"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="54"/>
-    </row>
-    <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="E19" s="54"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="54"/>
-    </row>
-    <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>4</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="83" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="54"/>
-    </row>
-    <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>5</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="54"/>
-    </row>
-    <row r="22" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>6</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="54"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="54"/>
-    </row>
-    <row r="23" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>7</v>
-      </c>
-      <c r="B23" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="62"/>
-    </row>
-    <row r="24" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>8</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="62"/>
-    </row>
-    <row r="25" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>9</v>
-      </c>
-      <c r="B25" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="E25" s="59"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="62"/>
-    </row>
-    <row r="26" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>10</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>11</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="E27" s="59"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
-    </row>
-    <row r="28" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>12</v>
-      </c>
-      <c r="B28" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-    </row>
-    <row r="29" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>13</v>
-      </c>
-      <c r="B29" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="59"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="74"/>
-    </row>
-    <row r="30" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>14</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="74"/>
-    </row>
-    <row r="31" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>15</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E31" s="59"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="74"/>
-    </row>
-    <row r="32" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>16</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="74"/>
-    </row>
-  </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="D15:E16"/>
-    <mergeCell ref="F15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{25E5D7A9-4F2A-44FC-B744-60C8FE59558E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6047,7 +4482,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B14" sqref="B14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6065,14 +4500,14 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -6213,7 +4648,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -6289,7 +4724,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -6360,51 +4795,51 @@
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
+      <c r="B18" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
       <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
+      <c r="B19" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="1:13" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -6419,11 +4854,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="53" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="53"/>
@@ -6438,7 +4873,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="53" t="s">
@@ -6457,11 +4892,11 @@
         <v>7</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="58" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E23" s="59"/>
       <c r="F23" s="60"/>
@@ -6476,11 +4911,11 @@
         <v>8</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="60"/>
@@ -6510,11 +4945,15 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:K8"/>
@@ -6533,10 +4972,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I15:K16"/>
@@ -6573,7 +5008,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:C18"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6591,14 +5026,14 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -6739,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -6758,7 +5193,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -6817,7 +5252,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -6889,11 +5324,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -6908,11 +5343,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="58" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E19" s="59"/>
       <c r="F19" s="53"/>
@@ -6927,11 +5362,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -6946,7 +5381,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="53" t="s">
@@ -6965,11 +5400,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="60"/>
@@ -6984,11 +5419,11 @@
         <v>7</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="58" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E23" s="59"/>
       <c r="F23" s="60"/>
@@ -7003,11 +5438,11 @@
         <v>8</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="60"/>
@@ -7022,11 +5457,11 @@
         <v>9</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E25" s="59"/>
       <c r="F25" s="60"/>
@@ -7041,11 +5476,11 @@
         <v>10</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="58" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="60"/>
@@ -7060,11 +5495,11 @@
         <v>11</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E27" s="59"/>
       <c r="F27" s="72"/>
@@ -7079,11 +5514,11 @@
         <v>12</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="58" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="72"/>
@@ -7188,7 +5623,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:C22"/>
+      <selection activeCell="B14" sqref="B14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7206,14 +5641,14 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -7428,7 +5863,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -7500,11 +5935,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -7519,11 +5954,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -7538,11 +5973,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -7557,11 +5992,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="53" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="53"/>
@@ -7576,11 +6011,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="53" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="53"/>
@@ -7656,8 +6091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863D1623-AE8B-44A5-9703-0C4EE436ABB3}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7675,14 +6110,14 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -7823,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -7842,7 +6277,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
@@ -7901,7 +6336,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>56</v>
+        <v>154</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -7973,11 +6408,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -7992,11 +6427,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -8011,7 +6446,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
@@ -8030,11 +6465,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="57"/>
       <c r="D21" s="58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E21" s="59"/>
       <c r="F21" s="60"/>
@@ -8049,11 +6484,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="58" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="60"/>
@@ -8068,11 +6503,11 @@
         <v>7</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="58" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E23" s="59"/>
       <c r="F23" s="60"/>
@@ -8087,11 +6522,11 @@
         <v>8</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="60"/>
@@ -8106,11 +6541,11 @@
         <v>9</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E25" s="59"/>
       <c r="F25" s="60"/>
@@ -8125,11 +6560,11 @@
         <v>10</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="58" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="60"/>
@@ -8144,11 +6579,11 @@
         <v>11</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="58" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="E27" s="59"/>
       <c r="F27" s="72"/>
@@ -8163,11 +6598,11 @@
         <v>12</v>
       </c>
       <c r="B28" s="58" t="s">
-        <v>171</v>
+        <v>124</v>
       </c>
       <c r="C28" s="59"/>
       <c r="D28" s="58" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="72"/>
@@ -8273,7 +6708,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8291,14 +6726,14 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -8513,7 +6948,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -8585,11 +7020,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -8604,11 +7039,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -8622,39 +7057,39 @@
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="67"/>
+      <c r="B20" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="65"/>
     </row>
     <row r="21" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="67"/>
+      <c r="B21" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="67"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -8671,12 +7106,12 @@
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="A1:B1"/>
@@ -8719,7 +7154,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+      <selection activeCell="B14" sqref="B14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8731,20 +7166,20 @@
     <col min="6" max="11" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -8885,7 +7320,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
@@ -8961,7 +7396,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -9033,11 +7468,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -9051,31 +7486,31 @@
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
+      <c r="B19" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -9090,11 +7525,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="53" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E21" s="54"/>
       <c r="F21" s="53"/>
@@ -9109,7 +7544,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="58" t="s">
@@ -9128,11 +7563,11 @@
         <v>7</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="60" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E23" s="62"/>
       <c r="F23" s="60"/>
@@ -9147,11 +7582,11 @@
         <v>8</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="60"/>
@@ -9239,7 +7674,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E20"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9249,20 +7684,20 @@
     <col min="6" max="11" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>70</v>
+        <v>161</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -9404,9 +7839,7 @@
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>59</v>
-      </c>
+      <c r="G9" s="42"/>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -9481,7 +7914,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -9553,11 +7986,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C18" s="54"/>
       <c r="D18" s="53" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E18" s="54"/>
       <c r="F18" s="53"/>
@@ -9572,11 +8005,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="53" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="53" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="E19" s="54"/>
       <c r="F19" s="53"/>
@@ -9591,11 +8024,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="53" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="53"/>
@@ -9659,9 +8092,6 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="I20:K20"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{A5E1B17E-05F6-4590-B3EC-FFA57304C738}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9671,7 +8101,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+      <selection activeCell="F1" sqref="F1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9687,14 +8117,14 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -9836,7 +8266,9 @@
       <c r="F9" s="16">
         <v>1</v>
       </c>
-      <c r="G9" s="41"/>
+      <c r="G9" s="42" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -9853,7 +8285,9 @@
       <c r="F10" s="16">
         <v>2</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="42" t="s">
+        <v>53</v>
+      </c>
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
       <c r="J10" s="32"/>
@@ -9906,12 +8340,12 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -9964,7 +8398,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="53" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="83" t="s">
@@ -9982,50 +8416,50 @@
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="67"/>
+      <c r="B18" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="67"/>
+      <c r="D18" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="65"/>
     </row>
     <row r="19" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
+      <c r="B19" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
     </row>
     <row r="20" spans="1:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4</v>
       </c>
       <c r="B20" s="53" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="83" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E20" s="83"/>
       <c r="F20" s="53"/>
@@ -10040,11 +8474,11 @@
         <v>5</v>
       </c>
       <c r="B21" s="56" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C21" s="57"/>
       <c r="D21" s="60" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="E21" s="62"/>
       <c r="F21" s="60"/>
@@ -10059,11 +8493,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="53" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="54"/>
       <c r="F22" s="53"/>
@@ -10078,7 +8512,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="53" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="53" t="s">
@@ -10097,11 +8531,11 @@
         <v>8</v>
       </c>
       <c r="B24" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E24" s="59"/>
       <c r="F24" s="60"/>
@@ -10116,11 +8550,11 @@
         <v>9</v>
       </c>
       <c r="B25" s="56" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="58" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E25" s="59"/>
       <c r="F25" s="60"/>
@@ -10135,11 +8569,11 @@
         <v>10</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="60"/>
@@ -10154,11 +8588,11 @@
         <v>11</v>
       </c>
       <c r="B27" s="56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E27" s="59"/>
       <c r="F27" s="60"/>
@@ -10173,11 +8607,11 @@
         <v>12</v>
       </c>
       <c r="B28" s="56" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C28" s="57"/>
       <c r="D28" s="58" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E28" s="59"/>
       <c r="F28" s="60"/>
@@ -10192,11 +8626,11 @@
         <v>13</v>
       </c>
       <c r="B29" s="56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C29" s="57"/>
       <c r="D29" s="58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E29" s="59"/>
       <c r="F29" s="72"/>
@@ -10211,11 +8645,11 @@
         <v>14</v>
       </c>
       <c r="B30" s="58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="58" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="72"/>
@@ -10314,6 +8748,10 @@
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="I30:K30"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{374234C2-36E5-4750-A375-1681D8541168}"/>
+    <hyperlink ref="G10" r:id="rId2" xr:uid="{A6180E57-3148-497A-A8CE-18FAF8A8CC5E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/Test cases Telnyx.xlsx
+++ b/docs/Test cases Telnyx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkmts\OneDrive\Рабочий стол\Cypress-cucumber\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16A90DB-6C30-4034-8957-B7832C2A01D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8093341-BCFA-484D-8096-E03F8F0D641A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1530" windowWidth="18990" windowHeight="18870" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1530" windowWidth="18990" windowHeight="18870" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase1" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="173">
   <si>
     <t>Step #</t>
   </si>
@@ -387,9 +387,6 @@
     <t>TX_015</t>
   </si>
   <si>
-    <t>"industry-leading platform" link-button should be clickable</t>
-  </si>
-  <si>
     <t>Set valid value in "Tell us" field</t>
   </si>
   <si>
@@ -498,9 +495,6 @@
     <t>Check that "Confirm email" page is loading after clicking "Submit" button on Sign Up page with filling the correct data ​​in the required fields, form opened via link from the "SMS API" page</t>
   </si>
   <si>
-    <t>Verify that "Mission Control Portal" topic text visibility and "industry-leading platform" link-button clickability on "Mission Control" page</t>
-  </si>
-  <si>
     <t>Chech that "Mission Control" link navigate to "Mission Control" page from the "Why Telnyx" dropdown</t>
   </si>
   <si>
@@ -556,6 +550,9 @@
   </si>
   <si>
     <t>User on the Telnyx page and confirm the cookies</t>
+  </si>
+  <si>
+    <t>Verify that "Mission Control Portal" topic text visibility and "industry-leading platform" link-button visibility on "Mission Control" page</t>
   </si>
 </sst>
 </file>
@@ -1090,12 +1087,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1107,6 +1098,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1391,7 +1388,7 @@
       </c>
       <c r="E1" s="25"/>
       <c r="F1" s="26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -1542,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -1608,7 +1605,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -1699,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="51" t="s">
@@ -1820,7 +1817,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -1973,7 +1970,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -2039,7 +2036,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -2092,11 +2089,11 @@
         <v>1</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="51"/>
@@ -2111,11 +2108,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="52"/>
       <c r="F18" s="51"/>
@@ -2130,11 +2127,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="83" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="83"/>
       <c r="F19" s="51"/>
@@ -2232,7 +2229,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -2385,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -2451,7 +2448,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -2504,11 +2501,11 @@
         <v>1</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="51"/>
@@ -2523,11 +2520,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="52"/>
       <c r="F18" s="51"/>
@@ -2542,11 +2539,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="83" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E19" s="83"/>
       <c r="F19" s="51"/>
@@ -2634,7 +2631,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -2787,7 +2784,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -2853,7 +2850,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -2948,7 +2945,7 @@
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="59"/>
       <c r="F19" s="72"/>
@@ -3035,7 +3032,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -3188,7 +3185,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -3254,7 +3251,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -3436,7 +3433,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -3591,7 +3588,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -3710,11 +3707,11 @@
         <v>1</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="51"/>
@@ -3729,11 +3726,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="52"/>
       <c r="F18" s="51"/>
@@ -3748,11 +3745,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="83" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="83"/>
       <c r="F19" s="51"/>
@@ -3767,11 +3764,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="52"/>
       <c r="F20" s="51"/>
@@ -3786,7 +3783,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="51" t="s">
@@ -3805,11 +3802,11 @@
         <v>6</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="59"/>
       <c r="F22" s="60"/>
@@ -3920,7 +3917,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -4137,7 +4134,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -4190,11 +4187,11 @@
         <v>1</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="51"/>
@@ -4209,11 +4206,11 @@
         <v>2</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="52"/>
       <c r="D18" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" s="52"/>
       <c r="F18" s="51"/>
@@ -4228,11 +4225,11 @@
         <v>3</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E19" s="83"/>
       <c r="F19" s="51"/>
@@ -4247,11 +4244,11 @@
         <v>4</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="52"/>
       <c r="F20" s="51"/>
@@ -4355,7 +4352,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -4508,7 +4505,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -4574,7 +4571,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -4594,10 +4591,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="69"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
@@ -4613,8 +4610,8 @@
       <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="47"/>
       <c r="G16" s="50"/>
       <c r="H16" s="48"/>
@@ -4626,14 +4623,14 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="66" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="67"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="63"/>
       <c r="G17" s="64"/>
       <c r="H17" s="65"/>
@@ -4646,14 +4643,14 @@
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="66" t="s">
+      <c r="B18" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="67"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="63"/>
       <c r="G18" s="64"/>
       <c r="H18" s="65"/>
@@ -4777,22 +4774,26 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="G12:K12"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B14:K14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -4801,11 +4802,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B14:K14"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
@@ -4820,7 +4816,8 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{39110AA2-7726-45AE-B29C-D47DDD7F3F1A}"/>
@@ -5013,7 +5010,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -5101,10 +5098,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="69"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
@@ -5120,8 +5117,8 @@
       <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="47"/>
       <c r="G16" s="50"/>
       <c r="H16" s="48"/>
@@ -5454,7 +5451,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -5605,7 +5602,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -5671,7 +5668,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
@@ -5691,10 +5688,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="69"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
@@ -5710,8 +5707,8 @@
       <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="47"/>
       <c r="G16" s="50"/>
       <c r="H16" s="48"/>
@@ -5902,7 +5899,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -6055,7 +6052,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -6123,7 +6120,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -6143,10 +6140,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="69"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
@@ -6162,8 +6159,8 @@
       <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="47"/>
       <c r="G16" s="50"/>
       <c r="H16" s="48"/>
@@ -6347,11 +6344,11 @@
         <v>10</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="59"/>
       <c r="F26" s="72"/>
@@ -6366,7 +6363,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="59"/>
       <c r="D27" s="58" t="s">
@@ -6497,7 +6494,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -6648,7 +6645,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -6714,7 +6711,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -6734,10 +6731,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="69"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
@@ -6753,8 +6750,8 @@
       <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="47"/>
       <c r="G16" s="50"/>
       <c r="H16" s="48"/>
@@ -6804,14 +6801,14 @@
       <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="66" t="s">
+      <c r="C19" s="71"/>
+      <c r="D19" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="E19" s="67"/>
+      <c r="E19" s="71"/>
       <c r="F19" s="63"/>
       <c r="G19" s="64"/>
       <c r="H19" s="65"/>
@@ -6823,14 +6820,14 @@
       <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="66" t="s">
+      <c r="C20" s="71"/>
+      <c r="D20" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="67"/>
+      <c r="E20" s="71"/>
       <c r="F20" s="63"/>
       <c r="G20" s="64"/>
       <c r="H20" s="65"/>
@@ -6922,7 +6919,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -7075,7 +7072,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -7141,7 +7138,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -7161,10 +7158,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="46"/>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="69"/>
+      <c r="E15" s="67"/>
       <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
@@ -7180,8 +7177,8 @@
       <c r="A16" s="44"/>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="47"/>
       <c r="G16" s="50"/>
       <c r="H16" s="48"/>
@@ -7212,14 +7209,14 @@
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="67"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="63"/>
       <c r="G18" s="64"/>
       <c r="H18" s="65"/>
@@ -7396,7 +7393,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+      <selection activeCell="B14" sqref="B14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7419,7 +7416,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -7572,7 +7569,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -7638,7 +7635,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -7733,7 +7730,7 @@
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="51" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E19" s="52"/>
       <c r="F19" s="51"/>
@@ -7825,7 +7822,7 @@
       </c>
       <c r="E1" s="23"/>
       <c r="F1" s="26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
@@ -7980,7 +7977,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -8048,7 +8045,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="55"/>
       <c r="D14" s="55"/>
@@ -8100,14 +8097,14 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="66" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="67"/>
+      <c r="E17" s="71"/>
       <c r="F17" s="63"/>
       <c r="G17" s="64"/>
       <c r="H17" s="65"/>
@@ -8119,14 +8116,14 @@
       <c r="A18" s="1">
         <v>2</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="67"/>
+      <c r="E18" s="71"/>
       <c r="F18" s="63"/>
       <c r="G18" s="64"/>
       <c r="H18" s="65"/>
@@ -8139,7 +8136,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C19" s="52"/>
       <c r="D19" s="83" t="s">
@@ -8345,25 +8342,18 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:K22"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B22:C22"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
@@ -8379,6 +8369,7 @@
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -8387,11 +8378,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:K11"/>
@@ -8407,6 +8393,17 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:H25"/>
@@ -8415,6 +8412,10 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="F27:H27"/>
@@ -8423,10 +8424,6 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{374234C2-36E5-4750-A375-1681D8541168}"/>
